--- a/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
   <si>
     <t>Asset ID</t>
   </si>
@@ -82,79 +82,73 @@
     <t>CF2 - HSSE Definision</t>
   </si>
   <si>
-    <t>WIB-PSV-V05A-4</t>
-  </si>
-  <si>
-    <t>Pressure Safety Valve V05A</t>
+    <t>Bussiness Unit Area</t>
+  </si>
+  <si>
+    <t>Leakage Potential</t>
+  </si>
+  <si>
+    <t>Loss Type</t>
+  </si>
+  <si>
+    <t>Cost of repair as % of new valve cost</t>
+  </si>
+  <si>
+    <t>SBU</t>
+  </si>
+  <si>
+    <t>AIDA-A</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Increased degradation</t>
+  </si>
+  <si>
+    <t>No Expected Effect</t>
+  </si>
+  <si>
+    <t>Significantly Below Specification</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Multiple Fatalities</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>ARYANI-A</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Downstream cascade effect significant</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Moderate Effect</t>
+  </si>
+  <si>
+    <t>Within Specification Range</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Single Fatality or Total Permanent</t>
   </si>
   <si>
     <t>NBU</t>
-  </si>
-  <si>
-    <t>AIDA-A</t>
-  </si>
-  <si>
-    <t>No Expected Effect</t>
-  </si>
-  <si>
-    <t>Significantly Below Specification</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Multiple Fatalities</t>
-  </si>
-  <si>
-    <t>Bussiness Unit Area</t>
-  </si>
-  <si>
-    <t>Leakage Potential</t>
-  </si>
-  <si>
-    <t>Loss Type</t>
-  </si>
-  <si>
-    <t>Cost of repair as % of new valve cost</t>
-  </si>
-  <si>
-    <t>SBU</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Atmosphere</t>
-  </si>
-  <si>
-    <t>Increased degradation</t>
-  </si>
-  <si>
-    <t>CBU</t>
-  </si>
-  <si>
-    <t>ARYANI-A</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Downstream cascade effect significant</t>
-  </si>
-  <si>
-    <t>As expected</t>
-  </si>
-  <si>
-    <t>Moderate Effect</t>
-  </si>
-  <si>
-    <t>Within Specification Range</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Single Fatality or Total Permanent</t>
   </si>
   <si>
     <t>CHESSY-A</t>
@@ -483,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -521,8 +515,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,6 +546,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -543,8 +619,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,123 +664,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -710,43 +704,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,49 +812,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,61 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,15 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -952,6 +937,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,6 +1006,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -996,191 +1023,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1203,12 +1197,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,9 +1213,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,13 +1581,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.4553571428571" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.5446428571429" style="5" customWidth="1"/>
@@ -1626,23 +1611,23 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="20"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" s="4" customFormat="1" ht="48" spans="1:15">
       <c r="A2" s="9" t="s">
@@ -1657,85 +1642,38 @@
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="18" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.5" customHeight="1" spans="1:15">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="18">
-        <v>44743</v>
-      </c>
-      <c r="F3" s="11">
-        <v>18</v>
-      </c>
-      <c r="G3" s="11">
-        <v>60</v>
-      </c>
-      <c r="H3" s="11">
-        <v>40</v>
-      </c>
-      <c r="I3" s="11">
-        <v>40</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="11">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1745,9 +1683,6 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:O1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1773,19 +1708,19 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -1805,599 +1740,599 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr backupFile="1"/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="17980" tabRatio="861"/>
+    <workbookView windowWidth="30300" windowHeight="17980" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment" sheetId="15" r:id="rId1"/>
@@ -477,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -531,8 +531,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,20 +578,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -576,8 +592,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,64 +631,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,11 +652,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -710,157 +710,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,6 +959,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -989,21 +1015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1012,150 +1023,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,7 +1164,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="O3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="1"/>
@@ -1683,6 +1683,20 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:O1"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>"Significantly Below Specification,Within Specification Range,Above Specification Limit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
+      <formula1>"Slight Injury or Health Effect,Minor Injury or Health Effect,Moderate or Significant Injury or Health Effect,Single Fatality or Total Permanent,Multiple Fatalities"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 K3">
+      <formula1>"No Expected Effect,Moderate Effect,Significant Effect"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr backupFile="1"/>
   <bookViews>
-    <workbookView windowWidth="30300" windowHeight="17980" tabRatio="861"/>
+    <workbookView windowWidth="29840" windowHeight="17680" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment" sheetId="15" r:id="rId1"/>
-    <sheet name="Lookup" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="DataLookup" sheetId="16" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lookup!$A$2:$B$16</definedName>
-    <definedName name="PlanktonicBacteria">Lookup!#REF!</definedName>
-    <definedName name="SessileSulfateReductionBacteriaSRB">Lookup!#REF!</definedName>
+    <definedName name="PlanktonicBacteria">#REF!</definedName>
+    <definedName name="SessileSulfateReductionBacteriaSRB">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -479,8 +478,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -523,6 +522,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -531,82 +636,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -616,15 +645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,39 +658,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -704,163 +703,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,26 +925,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,6 +945,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,31 +990,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1026,145 +1025,145 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1584,7 +1583,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="A3:O3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="1"/>
@@ -1683,18 +1682,24 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:O1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
-      <formula1>"Yes,No"</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
+      <formula1>"Slight Injury or Health Effect,Minor Injury or Health Effect,Moderate or Significant Injury or Health Effect,Single Fatality or Total Permanent,Multiple Fatalities"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
       <formula1>"Significantly Below Specification,Within Specification Range,Above Specification Limit"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
-      <formula1>"Slight Injury or Health Effect,Minor Injury or Health Effect,Moderate or Significant Injury or Health Effect,Single Fatality or Total Permanent,Multiple Fatalities"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 K3">
       <formula1>"No Expected Effect,Moderate Effect,Significant Effect"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>DataLookup!$B$3:$B$102</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>DataLookup!$A$3:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1707,8 +1712,8 @@
   <sheetPr/>
   <dimension ref="A2:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1752,7 +1757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" customFormat="1" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>52</v>
@@ -1865,493 +1870,492 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" customFormat="1" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" customFormat="1" spans="1:2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" customFormat="1" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" customFormat="1" spans="2:2">
       <c r="B17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" customFormat="1" spans="2:2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" customFormat="1" spans="2:2">
       <c r="B19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" customFormat="1" spans="2:2">
       <c r="B20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" customFormat="1" spans="2:2">
       <c r="B21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" customFormat="1" spans="2:2">
       <c r="B22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" customFormat="1" spans="2:2">
       <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" customFormat="1" spans="2:2">
       <c r="B24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" customFormat="1" spans="2:2">
       <c r="B25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" customFormat="1" spans="2:2">
       <c r="B26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" customFormat="1" spans="2:2">
       <c r="B27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" customFormat="1" spans="2:2">
       <c r="B28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" customFormat="1" spans="2:2">
       <c r="B29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" customFormat="1" spans="2:2">
       <c r="B30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" customFormat="1" spans="2:2">
       <c r="B31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" customFormat="1" spans="2:2">
       <c r="B32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" customFormat="1" spans="2:2">
       <c r="B33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" customFormat="1" spans="2:2">
       <c r="B34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" customFormat="1" spans="2:2">
       <c r="B35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" customFormat="1" spans="2:2">
       <c r="B36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" customFormat="1" spans="2:2">
       <c r="B37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" customFormat="1" spans="2:2">
       <c r="B38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" customFormat="1" spans="2:2">
       <c r="B39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" customFormat="1" spans="2:2">
       <c r="B40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" customFormat="1" spans="2:2">
       <c r="B41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" customFormat="1" spans="2:2">
       <c r="B42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" customFormat="1" spans="2:2">
       <c r="B43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" customFormat="1" spans="2:2">
       <c r="B44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" customFormat="1" spans="2:2">
       <c r="B45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" customFormat="1" spans="2:2">
       <c r="B46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" customFormat="1" spans="2:2">
       <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" customFormat="1" spans="2:2">
       <c r="B48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" customFormat="1" spans="2:2">
       <c r="B49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" customFormat="1" spans="2:2">
       <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" customFormat="1" spans="2:2">
       <c r="B51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" customFormat="1" spans="2:2">
       <c r="B52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" customFormat="1" spans="2:2">
       <c r="B53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" customFormat="1" spans="2:2">
       <c r="B54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" customFormat="1" spans="2:2">
       <c r="B55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" customFormat="1" spans="2:2">
       <c r="B56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" customFormat="1" spans="2:2">
       <c r="B57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" customFormat="1" spans="2:2">
       <c r="B58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" customFormat="1" spans="2:2">
       <c r="B59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" customFormat="1" spans="2:2">
       <c r="B60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" customFormat="1" spans="2:2">
       <c r="B61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" customFormat="1" spans="2:2">
       <c r="B62" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" customFormat="1" spans="2:2">
       <c r="B63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" customFormat="1" spans="2:2">
       <c r="B64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" customFormat="1" spans="2:2">
       <c r="B65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" customFormat="1" spans="2:2">
       <c r="B66" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" customFormat="1" spans="2:2">
       <c r="B67" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" customFormat="1" spans="2:2">
       <c r="B68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" customFormat="1" spans="2:2">
       <c r="B69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" customFormat="1" spans="2:2">
       <c r="B70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" customFormat="1" spans="2:2">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" customFormat="1" spans="2:2">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" customFormat="1" spans="2:2">
       <c r="B73" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" customFormat="1" spans="2:2">
       <c r="B74" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" customFormat="1" spans="2:2">
       <c r="B75" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" customFormat="1" spans="2:2">
       <c r="B76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" customFormat="1" spans="2:2">
       <c r="B77" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" customFormat="1" spans="2:2">
       <c r="B78" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" customFormat="1" spans="2:2">
       <c r="B79" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" customFormat="1" spans="2:2">
       <c r="B80" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" customFormat="1" spans="2:2">
       <c r="B81" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" customFormat="1" spans="2:2">
       <c r="B82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" customFormat="1" spans="2:2">
       <c r="B83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" customFormat="1" spans="2:2">
       <c r="B84" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" customFormat="1" spans="2:2">
       <c r="B85" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" customFormat="1" spans="2:2">
       <c r="B86" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" customFormat="1" spans="2:2">
       <c r="B87" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" customFormat="1" spans="2:2">
       <c r="B88" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" customFormat="1" spans="2:2">
       <c r="B89" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" customFormat="1" spans="2:2">
       <c r="B90" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" customFormat="1" spans="2:2">
       <c r="B91" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" customFormat="1" spans="2:2">
       <c r="B92" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" customFormat="1" spans="2:2">
       <c r="B93" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" customFormat="1" spans="2:2">
       <c r="B94" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" customFormat="1" spans="2:2">
       <c r="B95" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" customFormat="1" spans="2:2">
       <c r="B96" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" customFormat="1" spans="2:2">
       <c r="B97" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" customFormat="1" spans="2:2">
       <c r="B98" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" customFormat="1" spans="2:2">
       <c r="B99" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" customFormat="1" spans="2:2">
       <c r="B100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" customFormat="1" spans="2:2">
       <c r="B101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" customFormat="1" spans="2:2">
       <c r="B102" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/AssessmentTemplate.xlsx
@@ -1,21 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr backupFile="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PHE OSES\Test Software\Template Kosongan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D3AC6-9E0C-4B7A-975D-690D4883C1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29840" windowHeight="17680" tabRatio="861"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment" sheetId="15" r:id="rId1"/>
-    <sheet name="DataLookup" sheetId="16" state="hidden" r:id="rId2"/>
+    <sheet name="Lookup" sheetId="7" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="PlanktonicBacteria">#REF!</definedName>
-    <definedName name="SessileSulfateReductionBacteriaSRB">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lookup!$A$2:$B$16</definedName>
+    <definedName name="PlanktonicBacteria">Lookup!#REF!</definedName>
+    <definedName name="SessileSulfateReductionBacteriaSRB">Lookup!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Aris</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{347A5DE2-73AB-40E9-A1EA-89406D257B45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aris:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Asumsi</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,6 +122,24 @@
     <t>CF2 - HSSE Definision</t>
   </si>
   <si>
+    <t>NBU</t>
+  </si>
+  <si>
+    <t>AIDA-A</t>
+  </si>
+  <si>
+    <t>No Expected Effect</t>
+  </si>
+  <si>
+    <t>Significantly Below Specification</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Multiple Fatalities</t>
+  </si>
+  <si>
     <t>Bussiness Unit Area</t>
   </si>
   <si>
@@ -96,9 +155,6 @@
     <t>SBU</t>
   </si>
   <si>
-    <t>AIDA-A</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -108,18 +164,6 @@
     <t>Increased degradation</t>
   </si>
   <si>
-    <t>No Expected Effect</t>
-  </si>
-  <si>
-    <t>Significantly Below Specification</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Multiple Fatalities</t>
-  </si>
-  <si>
     <t>CBU</t>
   </si>
   <si>
@@ -145,9 +189,6 @@
   </si>
   <si>
     <t>Single Fatality or Total Permanent</t>
-  </si>
-  <si>
-    <t>NBU</t>
   </si>
   <si>
     <t>CHESSY-A</t>
@@ -474,14 +515,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,12 +525,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,174 +545,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,192 +604,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -924,370 +687,110 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 10 2" xfId="1"/>
-    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Normal 518" xfId="32"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
-    <cellStyle name="Good" xfId="35" builtinId="26"/>
-    <cellStyle name="Normal 10 2 2 2 2 2 2" xfId="36"/>
-    <cellStyle name="Heading 3" xfId="37" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="38" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="40" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
-    <cellStyle name="Title" xfId="42" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="43" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
-    <cellStyle name="Comma" xfId="47" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="49" builtinId="40"/>
-    <cellStyle name="Percent" xfId="50" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
+    <cellStyle name="Normal 10 2 2 2 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 10 2 2 2 2 2 2 2" xfId="6" xr:uid="{02C2ECD3-2148-4A6A-B686-B620C2D28AD1}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{754BFAC2-38E7-421C-8021-0C6C25BE61AE}"/>
+    <cellStyle name="Normal 2 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 518" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 518 2" xfId="5" xr:uid="{EB4E805A-317E-4F63-8934-A57803D82C1C}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0066"/>
-      <color rgb="00E781D8"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFE781D8"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1574,106 +1077,126 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.4553571428571" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.5446428571429" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.4553571428571" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.4553571428571" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.9107142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.6339285714286" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.3660714285714" style="5" customWidth="1"/>
-    <col min="9" max="11" width="20.1785714285714" style="5" customWidth="1"/>
-    <col min="12" max="12" width="25.4553571428571" style="5" customWidth="1"/>
-    <col min="13" max="14" width="20.1785714285714" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.2678571428571" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="8.72321428571429" style="5"/>
+    <col min="1" max="1" width="16.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.36328125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="20.1796875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.453125" style="5" customWidth="1"/>
+    <col min="13" max="14" width="20.1796875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="36.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="48" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="58">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="12" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.5" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1682,64 +1205,95 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:O1"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
-      <formula1>"Slight Injury or Health Effect,Minor Injury or Health Effect,Moderate or Significant Injury or Health Effect,Single Fatality or Total Permanent,Multiple Fatalities"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"Significantly Below Specification,Within Specification Range,Above Specification Limit"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 K3">
-      <formula1>"No Expected Effect,Moderate Effect,Significant Effect"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>DataLookup!$B$3:$B$102</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>DataLookup!$A$3:$A$6</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5182D854-DB79-470B-A942-4309B7327CF2}">
+          <x14:formula1>
+            <xm:f>Lookup!$A$3:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6463B5A0-FB18-4755-94FB-8E1FF8D1FB3D}">
+          <x14:formula1>
+            <xm:f>Lookup!$B$3:$B$102</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3797F63B-8141-45D3-A3B9-05F3AA8918FE}">
+          <x14:formula1>
+            <xm:f>Lookup!$F$3:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>J3:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81628AD3-3FFE-4A16-A1EA-F37AC650EC28}">
+          <x14:formula1>
+            <xm:f>Lookup!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>K3:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D64CC137-6FD5-48E2-9C40-E6B1D5A66752}">
+          <x14:formula1>
+            <xm:f>Lookup!$H$3:$H$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L3:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BD556A6-AF22-4288-A92B-1621CA99BC4B}">
+          <x14:formula1>
+            <xm:f>Lookup!$I$3:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M3:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31D3FDDB-462B-4DC3-B08B-710444DC98CD}">
+          <x14:formula1>
+            <xm:f>Lookup!$J$3:$J$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>O3:O1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="27.4553571428571" customWidth="1"/>
-    <col min="3" max="3" width="30.4553571428571" customWidth="1"/>
-    <col min="4" max="4" width="38.3660714285714" customWidth="1"/>
-    <col min="5" max="5" width="31.6339285714286" customWidth="1"/>
-    <col min="6" max="54" width="30.4553571428571" customWidth="1"/>
+    <col min="1" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.6328125" customWidth="1"/>
+    <col min="6" max="6" width="33.90625" customWidth="1"/>
+    <col min="7" max="54" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -1757,73 +1311,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="G4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
@@ -1850,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1861,7 +1415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>52</v>
@@ -1870,492 +1424,492 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="2:2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="2:2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="2:2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="2:2">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="2:2">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="2:2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="2:2">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="2:2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="2:2">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="2:2">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="2:2">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="2:2">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:2">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="2:2">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="2:2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="2:2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="2:2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="2:2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="2:2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="2:2">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="2:2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="2:2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="2:2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="2:2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="2:2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="2:2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="2:2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="2:2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="2:2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="2:2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="2:2">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="2:2">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="2:2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="2:2">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" customFormat="1" spans="2:2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="2:2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="2:2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="2:2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="2:2">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="2:2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="2:2">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="2:2">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="2:2">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="2:2">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="2:2">
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="2:2">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" customFormat="1" spans="2:2">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="2:2">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="2:2">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="2:2">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="2:2">
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="2:2">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="2:2">
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="2:2">
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="2:2">
+    <row r="73" spans="2:2">
       <c r="B73" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="2:2">
+    <row r="74" spans="2:2">
       <c r="B74" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="2:2">
+    <row r="75" spans="2:2">
       <c r="B75" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="2:2">
+    <row r="76" spans="2:2">
       <c r="B76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="2:2">
+    <row r="77" spans="2:2">
       <c r="B77" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="2:2">
+    <row r="78" spans="2:2">
       <c r="B78" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="2:2">
+    <row r="79" spans="2:2">
       <c r="B79" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="2:2">
+    <row r="80" spans="2:2">
       <c r="B80" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="2:2">
+    <row r="81" spans="2:2">
       <c r="B81" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="2:2">
+    <row r="82" spans="2:2">
       <c r="B82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="2:2">
+    <row r="83" spans="2:2">
       <c r="B83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="2:2">
+    <row r="84" spans="2:2">
       <c r="B84" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="2:2">
+    <row r="85" spans="2:2">
       <c r="B85" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="2:2">
+    <row r="86" spans="2:2">
       <c r="B86" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="2:2">
+    <row r="87" spans="2:2">
       <c r="B87" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="2:2">
+    <row r="88" spans="2:2">
       <c r="B88" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" customFormat="1" spans="2:2">
+    <row r="89" spans="2:2">
       <c r="B89" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="2:2">
+    <row r="90" spans="2:2">
       <c r="B90" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="91" customFormat="1" spans="2:2">
+    <row r="91" spans="2:2">
       <c r="B91" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="2:2">
+    <row r="92" spans="2:2">
       <c r="B92" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="2:2">
+    <row r="93" spans="2:2">
       <c r="B93" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="94" customFormat="1" spans="2:2">
+    <row r="94" spans="2:2">
       <c r="B94" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="95" customFormat="1" spans="2:2">
+    <row r="95" spans="2:2">
       <c r="B95" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" customFormat="1" spans="2:2">
+    <row r="96" spans="2:2">
       <c r="B96" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="97" customFormat="1" spans="2:2">
+    <row r="97" spans="2:2">
       <c r="B97" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="2:2">
+    <row r="98" spans="2:2">
       <c r="B98" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="2:2">
+    <row r="99" spans="2:2">
       <c r="B99" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100" customFormat="1" spans="2:2">
+    <row r="100" spans="2:2">
       <c r="B100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" customFormat="1" spans="2:2">
+    <row r="101" spans="2:2">
       <c r="B101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" customFormat="1" spans="2:2">
+    <row r="102" spans="2:2">
       <c r="B102" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>